--- a/Este é um teste.xlsx
+++ b/Este é um teste.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rm71175\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rm71175\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>Este é um teste</t>
+    <t>Este é o teste 2</t>
   </si>
 </sst>
 </file>
@@ -68,8 +68,36 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -347,7 +375,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
